--- a/estoque/Acesso Bebidas 1.0.xlsx
+++ b/estoque/Acesso Bebidas 1.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Titanz\Desktop\AppAcessoBebidas-release-1.0\estoque\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -108,22 +113,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Bonafont </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500ml</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Vibe </t>
     </r>
     <r>
@@ -177,6 +166,22 @@
   </si>
   <si>
     <t>Combos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bonafont </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250ml</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -274,6 +279,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -321,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +364,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +576,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -601,7 +609,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>150</v>
@@ -615,7 +623,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6">
         <v>90</v>
@@ -629,7 +637,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6">
         <v>120</v>
@@ -643,7 +651,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6">
         <v>82</v>
@@ -657,7 +665,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6">
         <v>100</v>
@@ -671,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6">
         <v>50</v>
@@ -679,13 +687,13 @@
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6">
         <v>80</v>
@@ -693,7 +701,7 @@
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -703,7 +711,7 @@
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
